--- a/analisis.xlsx
+++ b/analisis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer-PC\Documents\Data Mining\DatminGemastik19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29D89B3-A46E-4E9D-BBB3-A94CD2E54562}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F5FA08-6872-4CF8-896B-E511A7BF18AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2190" yWindow="3000" windowWidth="15375" windowHeight="7980" xr2:uid="{13A9EA66-CA38-4FED-B00D-F7CE69CACF15}"/>
   </bookViews>
@@ -295,12 +295,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8132D6-92E2-4712-9DAE-F2FECF9913ED}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91:E99"/>
+    <sheetView tabSelected="1" topLeftCell="C91" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1945,7 +1946,7 @@
         <v>1168.4491579999999</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>65</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>2571.8668210000001</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
         <v>66</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>6525.83313</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>67</v>
       </c>
@@ -1994,6 +1995,63 @@
       </c>
       <c r="E99" s="1">
         <v>19695.580077999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>2013</v>
+      </c>
+      <c r="B101">
+        <v>2014</v>
+      </c>
+      <c r="C101" s="3">
+        <v>2015</v>
+      </c>
+      <c r="D101">
+        <v>2016</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2017</v>
+      </c>
+      <c r="F101">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <f>0.84*1000</f>
+        <v>840</v>
+      </c>
+      <c r="B102">
+        <f>1000*0.88</f>
+        <v>880</v>
+      </c>
+      <c r="C102">
+        <v>910</v>
+      </c>
+      <c r="D102" s="1">
+        <v>960</v>
+      </c>
+      <c r="E102" s="1">
+        <v>1020</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="C105" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D105">
+        <v>1265.9194339999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="C106" s="1"/>
+      <c r="D106">
+        <f>(D105-C105)/C105</f>
+        <v>0.24109748431372541</v>
       </c>
     </row>
   </sheetData>
